--- a/Balances/EUA balances 10.2025.xlsx
+++ b/Balances/EUA balances 10.2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/danylo_babkov_spglobal_com/Documents/Documents/ETS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\Balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2C564-36DA-4953-9AAA-899DA83C9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A2B0ED1-61FD-4FB1-A9F6-BE677522864F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6A2B0ED1-61FD-4FB1-A9F6-BE677522864F}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="13" r:id="rId1"/>
@@ -88,6 +89,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1275,6 +1279,27 @@
     <xf numFmtId="17" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1284,12 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,21 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4925,18 +4929,18 @@
   </sheetPr>
   <dimension ref="A1:CT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="104.69921875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="104.75" style="31" customWidth="1"/>
     <col min="3" max="3" width="9" style="31"/>
     <col min="4" max="6" width="9" style="32"/>
-    <col min="7" max="7" width="14.69921875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="32" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="32" customWidth="1"/>
     <col min="9" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
@@ -5199,7 +5203,7 @@
       <c r="CS18" s="32"/>
       <c r="CT18" s="32"/>
     </row>
-    <row r="19" spans="2:98" s="31" customFormat="1" ht="13.8">
+    <row r="19" spans="2:98" s="31" customFormat="1" ht="14.25">
       <c r="B19" s="38" t="s">
         <v>23</v>
       </c>
@@ -5299,7 +5303,7 @@
       <c r="CS19" s="32"/>
       <c r="CT19" s="32"/>
     </row>
-    <row r="21" spans="2:98" s="31" customFormat="1" ht="15.6">
+    <row r="21" spans="2:98" s="31" customFormat="1" ht="15.75">
       <c r="B21" s="39" t="s">
         <v>24</v>
       </c>
@@ -5418,12 +5422,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="32.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="115.5" customWidth="1"/>
-    <col min="13" max="13" width="27.59765625" customWidth="1"/>
+    <col min="13" max="13" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5431,175 +5435,180 @@
         <f>+Disclaimer!B3</f>
         <v>45658</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
-    <row r="2" spans="1:13" ht="34.200000000000003" customHeight="1">
-      <c r="B2" s="100" t="s">
+    <row r="2" spans="1:13" ht="34.15" customHeight="1">
+      <c r="B2" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="81.75" customHeight="1">
       <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="97"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1">
       <c r="B4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
     </row>
-    <row r="5" spans="1:13" ht="83.4" customHeight="1">
+    <row r="5" spans="1:13" ht="83.45" customHeight="1">
       <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="1:13" ht="63" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
     </row>
-    <row r="7" spans="1:13" ht="38.4" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
+    <row r="7" spans="1:13" ht="38.450000000000003" customHeight="1">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
     </row>
     <row r="8" spans="1:13" ht="57" customHeight="1">
       <c r="B8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
     </row>
     <row r="9" spans="1:13" ht="90" customHeight="1">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
     </row>
-    <row r="10" spans="1:13" ht="34.200000000000003" customHeight="1">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106" t="s">
+    <row r="10" spans="1:13" ht="34.15" customHeight="1">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M7"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C9:M9"/>
@@ -5607,11 +5616,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C10:M10"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5626,9 +5630,9 @@
       <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" ht="15">
       <c r="B3" s="55"/>
       <c r="C3" s="55">
         <v>2013</v>
@@ -6098,19 +6102,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217C1273-8DDE-4A85-9355-D2C7A48C824D}">
   <dimension ref="B2:W53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.19921875" style="2" customWidth="1"/>
-    <col min="4" max="22" width="8.69921875" style="2"/>
-    <col min="23" max="23" width="15.19921875" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.25" style="2" customWidth="1"/>
+    <col min="4" max="22" width="8.75" style="2"/>
+    <col min="23" max="23" width="15.25" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -6219,8 +6223,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:23" customFormat="1" ht="13.8"/>
-    <row r="5" spans="2:23" customFormat="1" ht="13.8">
+    <row r="4" spans="2:23" customFormat="1" ht="14.25"/>
+    <row r="5" spans="2:23" customFormat="1" ht="15">
       <c r="O5" s="113" t="s">
         <v>49</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>0.226879</v>
       </c>
     </row>
-    <row r="15" spans="2:23" customFormat="1" ht="13.8">
+    <row r="15" spans="2:23" customFormat="1" ht="14.25">
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -6753,7 +6757,7 @@
       <c r="M15" s="54"/>
       <c r="N15" s="54"/>
     </row>
-    <row r="16" spans="2:23" customFormat="1" ht="13.8"/>
+    <row r="16" spans="2:23" customFormat="1" ht="14.25"/>
     <row r="17" spans="2:23">
       <c r="B17" s="17" t="s">
         <v>14</v>
@@ -7952,7 +7956,7 @@
         <v>585.00497800000005</v>
       </c>
     </row>
-    <row r="41" spans="2:23" customFormat="1" ht="13.8">
+    <row r="41" spans="2:23" customFormat="1" ht="14.25">
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="2:23">
@@ -8335,34 +8339,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca679687-70c9-4c6a-b916-22fb3f1e9e23">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="28763c67-4ca5-4df3-a41e-d7f28bb28368" xsi:nil="true"/>
-    <SharedWithUsers xmlns="8b5d5d6b-53dc-45ed-8147-d260621cfede">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD45E8470DF1654DB1ABC19C960D14DF" ma:contentTypeVersion="46" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc01b847dcd1a18be8a05771b8f3be73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca679687-70c9-4c6a-b916-22fb3f1e9e23" xmlns:ns3="28763c67-4ca5-4df3-a41e-d7f28bb28368" xmlns:ns4="8b5d5d6b-53dc-45ed-8147-d260621cfede" xmlns:ns5="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e44da76a6187829b04259858eb324258" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
@@ -8621,10 +8597,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca679687-70c9-4c6a-b916-22fb3f1e9e23">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="28763c67-4ca5-4df3-a41e-d7f28bb28368" xsi:nil="true"/>
+    <SharedWithUsers xmlns="8b5d5d6b-53dc-45ed-8147-d260621cfede">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB48AC88-143A-46D1-8EB3-414B48553990}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED3918-81F1-4A0B-ABA3-4FC20DEE620D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
+    <ds:schemaRef ds:uri="28763c67-4ca5-4df3-a41e-d7f28bb28368"/>
+    <ds:schemaRef ds:uri="8b5d5d6b-53dc-45ed-8147-d260621cfede"/>
+    <ds:schemaRef ds:uri="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8643,22 +8660,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED3918-81F1-4A0B-ABA3-4FC20DEE620D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB48AC88-143A-46D1-8EB3-414B48553990}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
-    <ds:schemaRef ds:uri="28763c67-4ca5-4df3-a41e-d7f28bb28368"/>
-    <ds:schemaRef ds:uri="8b5d5d6b-53dc-45ed-8147-d260621cfede"/>
-    <ds:schemaRef ds:uri="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Balances/EUA balances 10.2025.xlsx
+++ b/Balances/EUA balances 10.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\Balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2C564-36DA-4953-9AAA-899DA83C9747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA041E-9C8E-4F0E-A5A9-4E7EBCDD4D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6A2B0ED1-61FD-4FB1-A9F6-BE677522864F}"/>
   </bookViews>
@@ -1279,12 +1279,30 @@
     <xf numFmtId="17" fontId="25" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,24 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5435,180 +5435,175 @@
         <f>+Disclaimer!B3</f>
         <v>45658</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" ht="34.15" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" ht="81.75" customHeight="1">
       <c r="B3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" ht="81.75" customHeight="1">
       <c r="B4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="83.45" customHeight="1">
       <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:13" ht="63" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="38.450000000000003" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13" ht="57" customHeight="1">
       <c r="B8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" ht="90" customHeight="1">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
     </row>
     <row r="10" spans="1:13" ht="34.15" customHeight="1">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M7"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="C9:M9"/>
@@ -5616,6 +5611,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C10:M10"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6100,11 +6100,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217C1273-8DDE-4A85-9355-D2C7A48C824D}">
-  <dimension ref="B2:W53"/>
+  <dimension ref="B2:W54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -8326,6 +8326,36 @@
     <row r="53" spans="3:21">
       <c r="L53" s="81"/>
     </row>
+    <row r="54" spans="3:21">
+      <c r="O54" s="81">
+        <f>O18-O7</f>
+        <v>269.7018596690657</v>
+      </c>
+      <c r="P54" s="81">
+        <f t="shared" ref="P54:U54" si="24">P18-P7</f>
+        <v>185.35699783065184</v>
+      </c>
+      <c r="Q54" s="81">
+        <f t="shared" si="24"/>
+        <v>109.14073131718169</v>
+      </c>
+      <c r="R54" s="81">
+        <f t="shared" si="24"/>
+        <v>123.02554116868293</v>
+      </c>
+      <c r="S54" s="81">
+        <f t="shared" si="24"/>
+        <v>81.998571877035374</v>
+      </c>
+      <c r="T54" s="81">
+        <f t="shared" si="24"/>
+        <v>32.568850867450578</v>
+      </c>
+      <c r="U54" s="81">
+        <f t="shared" si="24"/>
+        <v>14.025921006791009</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:K2"/>
@@ -8339,6 +8369,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca679687-70c9-4c6a-b916-22fb3f1e9e23">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="28763c67-4ca5-4df3-a41e-d7f28bb28368" xsi:nil="true"/>
+    <SharedWithUsers xmlns="8b5d5d6b-53dc-45ed-8147-d260621cfede">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD45E8470DF1654DB1ABC19C960D14DF" ma:contentTypeVersion="46" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc01b847dcd1a18be8a05771b8f3be73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca679687-70c9-4c6a-b916-22fb3f1e9e23" xmlns:ns3="28763c67-4ca5-4df3-a41e-d7f28bb28368" xmlns:ns4="8b5d5d6b-53dc-45ed-8147-d260621cfede" xmlns:ns5="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e44da76a6187829b04259858eb324258" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
@@ -8597,35 +8655,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca679687-70c9-4c6a-b916-22fb3f1e9e23">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="28763c67-4ca5-4df3-a41e-d7f28bb28368" xsi:nil="true"/>
-    <SharedWithUsers xmlns="8b5d5d6b-53dc-45ed-8147-d260621cfede">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB48AC88-143A-46D1-8EB3-414B48553990}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99EE113-64CE-44B9-9DF6-F8A7F6AB88C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
+    <ds:schemaRef ds:uri="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2"/>
+    <ds:schemaRef ds:uri="28763c67-4ca5-4df3-a41e-d7f28bb28368"/>
+    <ds:schemaRef ds:uri="8b5d5d6b-53dc-45ed-8147-d260621cfede"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED3918-81F1-4A0B-ABA3-4FC20DEE620D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8644,25 +8695,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99EE113-64CE-44B9-9DF6-F8A7F6AB88C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca679687-70c9-4c6a-b916-22fb3f1e9e23"/>
-    <ds:schemaRef ds:uri="dfb75ef7-c82e-4410-8df8-bbd45a3fbdf2"/>
-    <ds:schemaRef ds:uri="28763c67-4ca5-4df3-a41e-d7f28bb28368"/>
-    <ds:schemaRef ds:uri="8b5d5d6b-53dc-45ed-8147-d260621cfede"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB48AC88-143A-46D1-8EB3-414B48553990}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>